--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB54AFC-496E-F64D-916E-699FC17E5EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719190E7-8A50-C845-AEE3-6B1867C7775D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C151"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2063,6 +2063,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719190E7-8A50-C845-AEE3-6B1867C7775D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB46F9E-48A3-FE4B-9052-EA30F7F7A7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2118,6 +2118,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB46F9E-48A3-FE4B-9052-EA30F7F7A7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D6612-B0F0-2B4E-87B6-73CAECD6AF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2140,6 +2140,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D6612-B0F0-2B4E-87B6-73CAECD6AF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27714B64-46B4-544B-9396-5EDBD2A0CFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2184,6 +2184,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27714B64-46B4-544B-9396-5EDBD2A0CFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B792B7AD-6E7A-E74E-8AB9-6C951338D48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2239,6 +2239,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44040</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44041</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B792B7AD-6E7A-E74E-8AB9-6C951338D48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B268572-D956-7546-9C0B-6F03413F8106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2305,6 +2305,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B268572-D956-7546-9C0B-6F03413F8106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B27389-8C82-3441-8DC1-49E430A1873F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2393,6 +2393,138 @@
         <v>5</v>
       </c>
     </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B27389-8C82-3441-8DC1-49E430A1873F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2305E56B-535A-8A47-A5D5-06958B3F8614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2525,6 +2525,160 @@
         <v>6</v>
       </c>
     </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2305E56B-535A-8A47-A5D5-06958B3F8614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D2323-60BA-8A40-A1F3-BF5E571D6FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2679,6 +2679,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D2323-60BA-8A40-A1F3-BF5E571D6FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C77AC-BB2A-C64D-9EC3-63528228E7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -446,7 +446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -578,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -644,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -886,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -930,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -974,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -996,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2765,6 +2765,292 @@
       </c>
       <c r="C215">
         <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C77AC-BB2A-C64D-9EC3-63528228E7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E0F8ED-3C64-DC4A-952B-F2C75278133D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3053,6 +3053,105 @@
         <v>6</v>
       </c>
     </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44121</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_feed.xlsx
+++ b/data/fiona_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E0F8ED-3C64-DC4A-952B-F2C75278133D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033785E-4672-A74A-B2BF-622BA99267F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{527BAF7D-3065-6644-99EE-09978655ED13}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD033C0-1853-934F-BCDD-50C87D2E2961}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3152,6 +3152,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44122</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44123</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44124</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44125</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
